--- a/biology/Médecine/Ferdinand-Marie_Baader/Ferdinand-Marie_Baader.xlsx
+++ b/biology/Médecine/Ferdinand-Marie_Baader/Ferdinand-Marie_Baader.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferdinand-Marie Baader est un médecin bavarois du XVIIIe siècle né à Ingolstadt le 10 février 1747, mort à Augsbourg le 4 mars 1797.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il prend le bonnet de docteur dans sa ville natale en 1771 puis s'installe la même année dans la commune d'Erding qui lui octroie le titre de physicien de la ville et où il épouse la veuve du dénommé Georges Schweinhammer, auquel il succède également dans ses fonctions[1]. Bien dans son temps, Il s'intéresse également aux sciences et à la philosophie, et l'on retrouve son mémoire sur quelques innovations en Physique parmi les Nouveaux Mémoires philosophiques de l'Académie des sciences de Munich[2]. Il reçoit une chaire d'Histoire naturelle à l'Académie des sciences de Munich en 1776 à l'âge de 29 ans après en être devenu membre ordinaire la même année, puis dirige deux ans plus tard la classe de physique et de philosophie de l'académie.
-Auteur d'ouvrages de circonstance[3], il est crédité d'un traité[4] sur les procédés de soigner les maladies vénériennes publié en 1777 et qualifié de remarquable près d'un siècle plus tard dans le Grand dictionnaire universel du XIXe siècle[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il prend le bonnet de docteur dans sa ville natale en 1771 puis s'installe la même année dans la commune d'Erding qui lui octroie le titre de physicien de la ville et où il épouse la veuve du dénommé Georges Schweinhammer, auquel il succède également dans ses fonctions. Bien dans son temps, Il s'intéresse également aux sciences et à la philosophie, et l'on retrouve son mémoire sur quelques innovations en Physique parmi les Nouveaux Mémoires philosophiques de l'Académie des sciences de Munich. Il reçoit une chaire d'Histoire naturelle à l'Académie des sciences de Munich en 1776 à l'âge de 29 ans après en être devenu membre ordinaire la même année, puis dirige deux ans plus tard la classe de physique et de philosophie de l'académie.
+Auteur d'ouvrages de circonstance, il est crédité d'un traité sur les procédés de soigner les maladies vénériennes publié en 1777 et qualifié de remarquable près d'un siècle plus tard dans le Grand dictionnaire universel du XIXe siècle.
 Il meurt d'apoplexie le 4 mars 1797.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Der patriotische Landbader: oder kurze Abhandlung von den verderblichen Früchten der Wollust und Geilheit, samt der besten Kurart der venerischen Krankheit unter dem Landvolke, Ferdinand-Marie Baader, Éd. Nötter (Munich), 1777.
 (de) Akademische Rede: was hat die Stiftung der Akademie sur Aufklosrung des Vaterlandes beygetragen?, Ferdinand-Marie Baader, Munich, 1783.
